--- a/generated_sheets/multiprocessing/testing purposes -para1.xlsx
+++ b/generated_sheets/multiprocessing/testing purposes -para1.xlsx
@@ -2482,29 +2482,29 @@
       </c>
       <c r="D4" s="45" t="inlineStr">
         <is>
-          <t>3318,7107</t>
+          <t>7161,9026</t>
         </is>
       </c>
       <c r="E4" s="46" t="n">
-        <v>0.1094901561737061</v>
+        <v>0.1249985694885254</v>
       </c>
       <c r="F4" s="47" t="n">
-        <v>0.09000706672668457</v>
+        <v>0.07812595367431641</v>
       </c>
       <c r="G4" s="47" t="n">
-        <v>0.02873420715332031</v>
+        <v>0.03125190734863281</v>
       </c>
       <c r="H4" s="48" t="n">
-        <v>1026.4</v>
+        <v>975.3</v>
       </c>
       <c r="I4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="44" t="n">
-        <v>1000.5</v>
+        <v>991.5</v>
       </c>
       <c r="K4" s="49" t="n">
-        <v>2540.1</v>
+        <v>2577.4</v>
       </c>
       <c r="L4" s="44" t="n">
         <v>0</v>
@@ -2513,13 +2513,13 @@
         <v>652</v>
       </c>
       <c r="N4" s="49" t="n">
-        <v>2556.5</v>
+        <v>2612</v>
       </c>
       <c r="O4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="44" t="n">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="Q4" s="45">
         <f>SUM(H4:P4)</f>
@@ -2530,31 +2530,31 @@
         <v/>
       </c>
       <c r="S4" s="45" t="n">
-        <v>993</v>
+        <v>940.5</v>
       </c>
       <c r="T4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="44" t="n">
-        <v>1000.5</v>
+        <v>991.5</v>
       </c>
       <c r="V4" s="49" t="n">
-        <v>2554.6</v>
+        <v>2596.7</v>
       </c>
       <c r="W4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="X4" s="44" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Y4" s="49" t="n">
-        <v>2575.4</v>
+        <v>2627.5</v>
       </c>
       <c r="Z4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AA4" s="44" t="n">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="AB4" s="45">
         <f>SUM(S4:AA4)</f>
@@ -2569,31 +2569,31 @@
         <v/>
       </c>
       <c r="AE4" s="45" t="n">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="AF4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG4" s="44" t="n">
-        <v>1000.5</v>
+        <v>991.5</v>
       </c>
       <c r="AH4" s="49" t="n">
-        <v>2604.1</v>
+        <v>2613.2</v>
       </c>
       <c r="AI4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" s="44" t="n">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AK4" s="49" t="n">
-        <v>2600.9</v>
+        <v>2665</v>
       </c>
       <c r="AL4" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AM4" s="44" t="n">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="AN4" s="45">
         <f>SUM(AE4:AM4)</f>
@@ -2658,20 +2658,20 @@
       </c>
       <c r="D5" s="55" t="inlineStr">
         <is>
-          <t>1682,9648</t>
+          <t>5347,8967</t>
         </is>
       </c>
       <c r="E5" s="56" t="n">
-        <v>0.115217924118042</v>
+        <v>0.140622615814209</v>
       </c>
       <c r="F5" s="57" t="n">
-        <v>0.1225199699401855</v>
+        <v>0.09375572204589844</v>
       </c>
       <c r="G5" s="57" t="n">
-        <v>0.03048801422119141</v>
+        <v>0.03124737739562988</v>
       </c>
       <c r="H5" s="58" t="n">
-        <v>1051.6</v>
+        <v>943.2</v>
       </c>
       <c r="I5" s="59" t="n">
         <v>0</v>
@@ -2680,22 +2680,22 @@
         <v>1000.5</v>
       </c>
       <c r="K5" s="60" t="n">
-        <v>2526.7</v>
+        <v>2542.8</v>
       </c>
       <c r="L5" s="59" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="59" t="n">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N5" s="60" t="n">
-        <v>2556.7</v>
+        <v>2530.4</v>
       </c>
       <c r="O5" s="59" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="59" t="n">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="Q5" s="61">
         <f>SUM(H5:P5)</f>
@@ -2706,7 +2706,7 @@
         <v/>
       </c>
       <c r="S5" s="61" t="n">
-        <v>1003.5</v>
+        <v>901.5</v>
       </c>
       <c r="T5" s="59" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>1000.5</v>
       </c>
       <c r="V5" s="60" t="n">
-        <v>2549.1</v>
+        <v>2559.3</v>
       </c>
       <c r="W5" s="59" t="n">
         <v>0</v>
       </c>
       <c r="X5" s="59" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="Y5" s="60" t="n">
-        <v>2582.4</v>
+        <v>2556.9</v>
       </c>
       <c r="Z5" s="59" t="n">
         <v>0</v>
       </c>
       <c r="AA5" s="59" t="n">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AB5" s="61">
         <f>SUM(S5:AA5)</f>
@@ -2745,7 +2745,7 @@
         <v/>
       </c>
       <c r="AE5" s="61" t="n">
-        <v>936</v>
+        <v>829.5</v>
       </c>
       <c r="AF5" s="59" t="n">
         <v>0</v>
@@ -2754,22 +2754,22 @@
         <v>1000.5</v>
       </c>
       <c r="AH5" s="60" t="n">
-        <v>2589.6</v>
+        <v>2601.3</v>
       </c>
       <c r="AI5" s="59" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" s="59" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AK5" s="60" t="n">
-        <v>2609.4</v>
+        <v>2586.9</v>
       </c>
       <c r="AL5" s="59" t="n">
         <v>0</v>
       </c>
       <c r="AM5" s="59" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AN5" s="61">
         <f>SUM(AE5:AM5)</f>
